--- a/DataPreprocessing/2.list_business_needs.xlsx
+++ b/DataPreprocessing/2.list_business_needs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptakchun/Desktop/YEAR 5 SEM 1/COMP4801FYP/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptakchun/Downloads/CODE/HKU-CS-FYP-Intelligent-matching-of-business-needs-and-IT-solutions/HKU-CS-FYP-Intelligent-matching-of-business-needs-and-IT-solutions/DataPreprocessing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9C068-14A5-E54B-8DEA-214C3014BC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F7561-2A3A-3541-BBC9-49A5D2003CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-15500" windowWidth="28800" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Needs (Central DB)" sheetId="1" r:id="rId1"/>
@@ -2380,31 +2380,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2472,7 +2454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2492,15 +2474,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2789,7 +2762,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2802,28 +2775,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2843,7 +2816,7 @@
       <c r="E2" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>463</v>
       </c>
       <c r="G2" t="s">
@@ -4875,7 +4848,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J72">
     <sortCondition ref="A2:A72"/>
   </sortState>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
